--- a/testfile1.xlsx
+++ b/testfile1.xlsx
@@ -1,62 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelthen/Documents/CPF-internship/n8n-nodes-excel-writer/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{616B6D14-A9EC-2F44-93EA-228D28D0D34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="5580" yWindow="2300" windowWidth="24660" windowHeight="15900" xr2:uid="{28CD6E54-798A-8747-8FD8-471C0D84982C}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>Text Output</t>
-  </si>
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>Ben</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Rachel</t>
-  </si>
-  <si>
-    <t>Hello</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,12 +66,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -100,89 +83,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6667500" cy="4448175"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6667500" cy="4448175"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,83 +401,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7577D3-B06E-BB48-A379-5FF54CED15C0}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" customHeight="1"/>
-  <cols>
-    <col min="1" max="4" width="50" customWidth="1"/>
-    <col min="5" max="5" width="100" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" ht="350" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2">
-        <v>99</v>
-      </c>
-      <c r="C2" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>98</v>
-      </c>
-      <c r="C3" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
-        <v>99</v>
-      </c>
-      <c r="C4" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="350" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>99</v>
-      </c>
-      <c r="C5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>